--- a/spliced/falling/2023-03-28_19-36-09/data_selected.xlsx
+++ b/spliced/falling/2023-03-28_19-36-09/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.067006587982178</v>
+        <v>-2.194540023803711</v>
       </c>
       <c r="D2" t="n">
-        <v>2.873429775238037</v>
+        <v>3.003044128417969</v>
       </c>
       <c r="E2" t="n">
-        <v>1.423784136772156</v>
+        <v>1.832991361618042</v>
       </c>
       <c r="F2" t="n">
-        <v>0.303600013256073</v>
+        <v>-0.0044287731871008</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.543059229850769</v>
+        <v>-0.00534507073462</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.08170322328805921</v>
+        <v>-0.0059559359215199</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.29484224319458</v>
+        <v>-2.376946449279785</v>
       </c>
       <c r="D3" t="n">
-        <v>2.899919509887696</v>
+        <v>2.956967353820801</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9216054677963256</v>
+        <v>2.026212930679321</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4523457288742065</v>
+        <v>0.0229074470698833</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0187841057777404</v>
+        <v>0.0282525178045034</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.3654501438140869</v>
+        <v>-0.0174096599221229</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.572871685028076</v>
+        <v>-2.072798252105713</v>
       </c>
       <c r="D4" t="n">
-        <v>2.635293960571289</v>
+        <v>2.900663375854492</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8762772083282471</v>
+        <v>1.98937726020813</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7015787363052368</v>
+        <v>0.0105374250560998</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1618792861700058</v>
+        <v>0.022754730656743</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5829181671142578</v>
+        <v>0.027030786499381</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.522858619689941</v>
+        <v>-2.095717430114746</v>
       </c>
       <c r="D5" t="n">
-        <v>2.20503568649292</v>
+        <v>2.981966018676758</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.38813579082489</v>
+        <v>1.861132502555847</v>
       </c>
       <c r="F5" t="n">
-        <v>1.675450682640076</v>
+        <v>0.0693332031369209</v>
       </c>
       <c r="G5" t="n">
-        <v>1.475086808204651</v>
+        <v>-0.06383541971445079</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.8148942589759827</v>
+        <v>0.0491746515035629</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.842933177947998</v>
+        <v>-1.865831851959228</v>
       </c>
       <c r="D6" t="n">
-        <v>1.577484607696533</v>
+        <v>2.951019287109375</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.089868783950806</v>
+        <v>1.621297121047974</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0062613687478005</v>
+        <v>0.1331686228513717</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.9306532144546508</v>
+        <v>-0.3678936064243316</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.9676105380058287</v>
+        <v>0.0591012127697467</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-4.4544997215271</v>
+        <v>-2.067006587982178</v>
       </c>
       <c r="D7" t="n">
-        <v>1.255614995956421</v>
+        <v>2.873429775238037</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.8465261459350586</v>
+        <v>1.423784136772156</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3433062732219696</v>
+        <v>0.303600013256073</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.104138970375061</v>
+        <v>-0.543059229850769</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.457677245140076</v>
+        <v>-0.08170322328805921</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-5.338289260864258</v>
+        <v>-2.29484224319458</v>
       </c>
       <c r="D8" t="n">
-        <v>1.582705736160278</v>
+        <v>2.899919509887696</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.3849935531616211</v>
+        <v>0.9216054677963256</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0331394411623477</v>
+        <v>0.4523457288742065</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.091463446617126</v>
+        <v>-0.0187841057777404</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.2848159074783325</v>
+        <v>-0.3654501438140869</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-4.480844497680664</v>
+        <v>-2.572871685028076</v>
       </c>
       <c r="D9" t="n">
-        <v>1.282651662826538</v>
+        <v>2.635293960571289</v>
       </c>
       <c r="E9" t="n">
-        <v>2.463369131088257</v>
+        <v>-0.8762772083282471</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5441282391548157</v>
+        <v>0.7015787363052368</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.445612549781799</v>
+        <v>0.1618792861700058</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.023199319839478</v>
+        <v>-0.5829181671142578</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.103891372680664</v>
+        <v>-2.522858619689941</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4368565082550049</v>
+        <v>2.20503568649292</v>
       </c>
       <c r="E10" t="n">
-        <v>3.362291574478149</v>
+        <v>-1.38813579082489</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6220135092735291</v>
+        <v>1.675450682640076</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1217148974537849</v>
+        <v>1.475086808204651</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1632537394762039</v>
+        <v>-0.8148942589759827</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1.144227027893066</v>
+        <v>-3.842933177947998</v>
       </c>
       <c r="D11" t="n">
-        <v>2.354315757751465</v>
+        <v>1.577484607696533</v>
       </c>
       <c r="E11" t="n">
-        <v>13.07988262176514</v>
+        <v>-1.089868783950806</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3145956099033355</v>
+        <v>0.0062613687478005</v>
       </c>
       <c r="G11" t="n">
-        <v>2.293798923492432</v>
+        <v>-0.9306532144546508</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2837468981742859</v>
+        <v>-0.9676105380058287</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.486200332641602</v>
+        <v>-4.4544997215271</v>
       </c>
       <c r="D12" t="n">
-        <v>2.786157846450806</v>
+        <v>1.255614995956421</v>
       </c>
       <c r="E12" t="n">
-        <v>2.96178674697876</v>
+        <v>-0.8465261459350586</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4984660446643829</v>
+        <v>0.3433062732219696</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9101892113685608</v>
+        <v>-1.104138970375061</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.3303253948688507</v>
+        <v>-1.457677245140076</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.131928443908691</v>
+        <v>-5.338289260864258</v>
       </c>
       <c r="D13" t="n">
-        <v>2.830825328826904</v>
+        <v>1.582705736160278</v>
       </c>
       <c r="E13" t="n">
-        <v>1.916574239730835</v>
+        <v>-0.3849935531616211</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2298380434513092</v>
+        <v>-0.0331394411623477</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4005748927593231</v>
+        <v>-1.091463446617126</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.2790127098560333</v>
+        <v>-0.2848159074783325</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-2.761401176452637</v>
+        <v>-4.480844497680664</v>
       </c>
       <c r="D14" t="n">
-        <v>2.834423780441284</v>
+        <v>1.282651662826538</v>
       </c>
       <c r="E14" t="n">
-        <v>1.722015500068665</v>
+        <v>2.463369131088257</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1247692257165908</v>
+        <v>-0.5441282391548157</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8822421431541443</v>
+        <v>-1.445612549781799</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0335975885391235</v>
+        <v>-1.023199319839478</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.3701868057250976</v>
+        <v>0.103891372680664</v>
       </c>
       <c r="D15" t="n">
-        <v>4.319061279296875</v>
+        <v>0.4368565082550049</v>
       </c>
       <c r="E15" t="n">
-        <v>2.649439811706543</v>
+        <v>3.362291574478149</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1759291887283325</v>
+        <v>-0.6220135092735291</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4524984359741211</v>
+        <v>0.1217148974537849</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3895792961120605</v>
+        <v>-0.1632537394762039</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.228100776672363</v>
+        <v>-1.144227027893066</v>
       </c>
       <c r="D16" t="n">
-        <v>5.800598621368408</v>
+        <v>2.354315757751465</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2291691303253173</v>
+        <v>13.07988262176514</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0332921557128429</v>
+        <v>-0.3145956099033355</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3558290004730224</v>
+        <v>2.293798923492432</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0131336031481623</v>
+        <v>0.2837468981742859</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.6507959365844727</v>
+        <v>2.486200332641602</v>
       </c>
       <c r="D17" t="n">
-        <v>2.542058944702148</v>
+        <v>2.786157846450806</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0516061782836914</v>
+        <v>2.96178674697876</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0276416521519422</v>
+        <v>-0.4984660446643829</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.413097620010376</v>
+        <v>0.9101892113685608</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.1679879426956176</v>
+        <v>-0.3303253948688507</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.5783891677856445</v>
+        <v>-2.131928443908691</v>
       </c>
       <c r="D18" t="n">
-        <v>2.491969108581543</v>
+        <v>2.830825328826904</v>
       </c>
       <c r="E18" t="n">
-        <v>0.75933837890625</v>
+        <v>1.916574239730835</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0131336031481623</v>
+        <v>-0.2298380434513092</v>
       </c>
       <c r="G18" t="n">
-        <v>0.164170041680336</v>
+        <v>-0.4005748927593231</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0546724386513233</v>
+        <v>-0.2790127098560333</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.4928359985351562</v>
+        <v>-2.761401176452637</v>
       </c>
       <c r="D19" t="n">
-        <v>4.111990451812744</v>
+        <v>2.834423780441284</v>
       </c>
       <c r="E19" t="n">
-        <v>1.581344366073608</v>
+        <v>1.722015500068665</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0343611687421798</v>
+        <v>0.1247692257165908</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3625485301017761</v>
+        <v>0.8822421431541443</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0714712366461753</v>
+        <v>-0.0335975885391235</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.7342987060546875</v>
+        <v>0.3701868057250976</v>
       </c>
       <c r="D20" t="n">
-        <v>3.00859808921814</v>
+        <v>4.319061279296875</v>
       </c>
       <c r="E20" t="n">
-        <v>1.478504180908203</v>
+        <v>2.649439811706543</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0067195175215601</v>
+        <v>-0.1759291887283325</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1789835095405578</v>
+        <v>0.4524984359741211</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0943786799907684</v>
+        <v>0.3895792961120605</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-1.228100776672363</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.800598621368408</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2291691303253173</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.0332921557128429</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.3558290004730224</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.0131336031481623</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6507959365844727</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.542058944702148</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.0516061782836914</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.0276416521519422</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.413097620010376</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.1679879426956176</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5783891677856445</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.491969108581543</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.75933837890625</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0131336031481623</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.164170041680336</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0546724386513233</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.4928359985351562</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.111990451812744</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.581344366073608</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0343611687421798</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3625485301017761</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0714712366461753</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.7342987060546875</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.00859808921814</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.478504180908203</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.0067195175215601</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.1789835095405578</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.0943786799907684</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>-0.7397565841674805</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D26" t="n">
         <v>3.457760334014893</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E26" t="n">
         <v>1.365005731582642</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F26" t="n">
         <v>0.0149661982432007</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G26" t="n">
         <v>0.0607810914516449</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H26" t="n">
         <v>-0.0117591563612222</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.0590333938598632</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.949368000030518</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.155394554138184</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.01328631862998</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0971275717020034</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0707076489925384</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.8675603866577148</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.302557468414306</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.166132688522339</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0103847095742821</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.119576871395111</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.0267253536731004</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.5926990509033203</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.298477172851562</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.354385137557983</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0067195175215601</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.0253509078174829</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.0310014113783836</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.5156621932983398</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.70509934425354</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.191632270812989</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.0029016099870204</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0800233483314514</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0277943685650825</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.767481803894043</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.210179328918457</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.142881870269775</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.00137444678694</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.0520762614905834</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.0032070425804704</v>
       </c>
     </row>
   </sheetData>
